--- a/_results.xlsx
+++ b/_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericwu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericwu/Dropbox/HomeworkSenior-2/AdvancedCA/project/aca-training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAF128-3EF8-AC48-BBD4-EF882914591A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105CE1C-74A2-9C43-8478-2ECFCD8FD266}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RE" sheetId="9" r:id="rId1"/>
@@ -18,8 +18,16 @@
     <sheet name="RES_H" sheetId="10" r:id="rId3"/>
     <sheet name="VG" sheetId="8" r:id="rId4"/>
     <sheet name="VGG" sheetId="7" r:id="rId5"/>
-    <sheet name="VGG_H" sheetId="11" r:id="rId6"/>
+    <sheet name="VGG_2" sheetId="15" r:id="rId6"/>
+    <sheet name="VGG_H" sheetId="11" r:id="rId7"/>
+    <sheet name="REX" sheetId="12" r:id="rId8"/>
+    <sheet name="REXNET" sheetId="13" r:id="rId9"/>
+    <sheet name="REXNET_H" sheetId="14" r:id="rId10"/>
+    <sheet name="charts" sheetId="16" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="53">
   <si>
     <t>mini-batch size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,18 +196,62 @@
   <si>
     <t>8 GPU</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>single GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 GPU DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 GPU heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 GPU ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 GPU DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 GPU heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 GPU ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 GPU DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 GPU heuristic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 GPU ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +284,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -304,7 +364,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +450,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,6 +790,7 @@
         <c:axId val="96726064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1279,6 +1361,1353 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Vgg</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Imbalance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Overhead</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VGG_2!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VGG_2!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 GPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VGG_2!$P$14:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8587389659520807E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25947999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC02-8940-AEA1-CB27D2A70725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VGG_2!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>VGG_2!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 GPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VGG_2!$Q$14:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8562177145017006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12603806734992679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27116582207207213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC02-8940-AEA1-CB27D2A70725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-24"/>
+        <c:axId val="102679440"/>
+        <c:axId val="102269744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102679440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102269744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102269744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102679440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>SE-ResNext</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Imbalance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Overhead</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>REXNET!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>REXNET!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 GPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>REXNET!$P$14:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9829999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10347943157253034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1B1-5E46-A01B-7113B83E1E47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>REXNET!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heuristic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>REXNET!$O$14:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2 GPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4 GPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8 GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>REXNET!$Q$14:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.7158032430372758E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5457768753961475E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3474519985508986E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1B1-5E46-A01B-7113B83E1E47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-24"/>
+        <c:axId val="102679440"/>
+        <c:axId val="102269744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102679440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102269744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102269744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102679440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ResNe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>t</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>charts!$A$1:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>single GPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 GPU DP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 GPU heuristic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 GPU ours</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4 GPU DP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4 GPU heuristic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4 GPU ours</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 GPU DP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8 GPU heuristic</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 GPU ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>charts!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0979006301904359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0464596521171559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8968553924936717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7099915443622171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3281629321796053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8926634423539639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9957-1845-8037-E50687E2BC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1363571327"/>
+        <c:axId val="1363565503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1363571327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>method</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363565503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363565503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>throughput</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363571327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1359,6 +2788,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2365,20 +3914,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2410,16 +5468,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15093</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14908</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658559</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>70586</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>97182</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19786</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2445,6 +5503,245 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1115759</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476986</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>37915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA0AFAC-C131-FA47-B44C-3C9C56D2C121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301782</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23930</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560345CD-0B0A-5943-B0A1-CDB400378848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088A9B70-3061-6246-A568-23FD4C0EAB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RE"/>
+      <sheetName val="RES"/>
+      <sheetName val="RES_H"/>
+      <sheetName val="工作表1"/>
+      <sheetName val="VG"/>
+      <sheetName val="VGG"/>
+      <sheetName val="VGG_H"/>
+      <sheetName val="工作表2"/>
+      <sheetName val="工作表3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>single GPU</v>
+          </cell>
+          <cell r="B1">
+            <v>5.2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>2 GPU DP</v>
+          </cell>
+          <cell r="B2">
+            <v>6.71</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>2 GPU heuristic</v>
+          </cell>
+          <cell r="B3">
+            <v>8.77</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>2 GPU ours</v>
+          </cell>
+          <cell r="B4">
+            <v>8.7799999999999994</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>4 GPU DP</v>
+          </cell>
+          <cell r="B5">
+            <v>7.38</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>4 GPU heuristic</v>
+          </cell>
+          <cell r="B6">
+            <v>12.67</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>4 GPU ours</v>
+          </cell>
+          <cell r="B7">
+            <v>15.3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>8 GPU DP</v>
+          </cell>
+          <cell r="B8">
+            <v>7.97</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>8 GPU heuristic</v>
+          </cell>
+          <cell r="B9">
+            <v>17.28</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>8 GPU ours</v>
+          </cell>
+          <cell r="B10">
+            <v>18.190000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2713,7 +6010,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection sqref="A1:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,13 +6331,1458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0E64A-A970-FD40-92FC-0AAB1F80C72B}">
+  <dimension ref="A1:AO41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11">
+        <v>4</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+    </row>
+    <row r="4" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11">
+        <v>16</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11">
+        <v>4</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11">
+        <v>8</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+    </row>
+    <row r="5" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5.7170800000000002</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <f>$A5/(J5+$A$11*K5)</f>
+        <v>2.7986314692115553</v>
+      </c>
+      <c r="M5" s="11">
+        <v>7.186528</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <f>$A5/(M5+$A$11*N5)</f>
+        <v>2.226388041624551</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="15">
+        <v>4.1651939999999996</v>
+      </c>
+      <c r="X5" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>$A5/(W5+$A$11*X5)</f>
+        <v>3.8413576894617636</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>4.4621959999999996</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="11">
+        <f>$A5/(Z5+$A$11*AA5)</f>
+        <v>3.5856784417358631</v>
+      </c>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>4.4889999999999999</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <f>$A5/(AG5+$A$11*AH5)</f>
+        <v>3.5642682111828914</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>3.2457579999999999</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="11">
+        <f>$A5/(AJ5+$A$11*AK5)</f>
+        <v>4.9295110726061528</v>
+      </c>
+      <c r="AM5" s="11">
+        <v>3.244434</v>
+      </c>
+      <c r="AN5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="11">
+        <f>$A5/(AM5+$A$11*AN5)</f>
+        <v>4.9315227247649362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="15">
+        <v>10.329575999999999</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" ref="O6:O8" si="0">$A6/(M6+$A$11*N6)</f>
+        <v>3.0979006301904359</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>6.5348059999999997</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" ref="AB6:AB8" si="1">$A6/(Z6+$A$11*AA6)</f>
+        <v>4.8968553924936717</v>
+      </c>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>5.5720219999999996</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="14">
+        <f t="shared" ref="AL6:AL8" si="2">$A6/(AJ6+$A$11*AK6)</f>
+        <v>5.7429780428002619</v>
+      </c>
+      <c r="AM6" s="11">
+        <v>4.4952019999999999</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="11">
+        <f t="shared" ref="AO6:AO8" si="3">$A6/(AM6+$A$11*AN6)</f>
+        <v>7.1187012285543565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" s="15">
+        <v>7.684768</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10">
+        <f>$A7/(AM7+$A$11*AN7)</f>
+        <v>8.3281629321796053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>128</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO8" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+    </row>
+    <row r="13" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="24">
+        <f>(131539-130302)/1000000</f>
+        <v>1.237E-3</v>
+      </c>
+      <c r="F14" s="24">
+        <f>(447832-399518)/1000000</f>
+        <v>4.8314000000000003E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10.329575999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14</v>
+      </c>
+      <c r="I14" s="25">
+        <f>G15/G14</f>
+        <v>6.7158032430372758E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <f>H14*(E14+F14)</f>
+        <v>0.69371400000000005</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="24">
+        <f>(75615-67838)/1000000</f>
+        <v>7.7770000000000001E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <f>(229056-215376)/1000000</f>
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="G23" s="24">
+        <v>6.5348059999999997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>14</v>
+      </c>
+      <c r="I23" s="25">
+        <f>G24/G23</f>
+        <v>9.5457768753961475E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+      <c r="E24" s="24">
+        <f>(75615-67838)/1000000</f>
+        <v>7.7770000000000001E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <f>(229056-213006)/1000000</f>
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <f>(2*(E23+E24+E26+E27+F23+F24+F26+F27)+10*(E25+F25))</f>
+        <v>0.62379799999999996</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="24">
+        <f>(75615-67838)/1000000</f>
+        <v>7.7770000000000001E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <f>(229056-193387)/1000000</f>
+        <v>3.5668999999999999E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="24">
+        <f>(75615-70212)/1000000</f>
+        <v>5.4029999999999998E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <f>(215376-193387)/1000000</f>
+        <v>2.1989000000000002E-2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="24">
+        <f>(70216-70212)/1000000</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="F27" s="1">
+        <f>(215376-193387)/1000000</f>
+        <v>2.1989000000000002E-2</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="24">
+        <f>(58351-57947)/1000000</f>
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="F29" s="1">
+        <f>(188314-177078)/1000000</f>
+        <v>1.1235999999999999E-2</v>
+      </c>
+      <c r="G29" s="24">
+        <v>7.684768</v>
+      </c>
+      <c r="H29" s="1">
+        <v>14</v>
+      </c>
+      <c r="I29" s="25">
+        <f>G30/G29</f>
+        <v>9.3474519985508986E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="24">
+        <f>(65925-57947)/1000000</f>
+        <v>7.9780000000000007E-3</v>
+      </c>
+      <c r="F30" s="1">
+        <f>(188314-177078)/1000000</f>
+        <v>1.1235999999999999E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <f>2*SUM(E29:F41)</f>
+        <v>0.71832999999999991</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="24">
+        <f>(65925-57947)/1000000</f>
+        <v>7.9780000000000007E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <f>(188314-171379)/1000000</f>
+        <v>1.6934999999999999E-2</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="24">
+        <f>(65925-57947)/1000000</f>
+        <v>7.9780000000000007E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <f>(188314-171379)/1000000</f>
+        <v>1.6934999999999999E-2</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="24">
+        <f>(65925-57947)/1000000</f>
+        <v>7.9780000000000007E-3</v>
+      </c>
+      <c r="F33" s="1">
+        <f>(198210-171379)/1000000</f>
+        <v>2.6831000000000001E-2</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="24">
+        <f>(65925-57947)/1000000</f>
+        <v>7.9780000000000007E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="24">
+        <f>(65925-58351)/1000000</f>
+        <v>7.574E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="24">
+        <f>(65925-60684)/1000000</f>
+        <v>5.241E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="24">
+        <f>(62651-60684)/1000000</f>
+        <v>1.967E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="24">
+        <f>(62651-60684)/1000000</f>
+        <v>1.967E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+      <c r="E39" s="24">
+        <f>(62651-60684)/1000000</f>
+        <v>1.967E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+      <c r="E40" s="24">
+        <f>(62651-60684)/1000000</f>
+        <v>1.967E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <f>(198210-169427)/1000000</f>
+        <v>2.8783E-2</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="24">
+        <f>(62651-60684)/1000000</f>
+        <v>1.967E-3</v>
+      </c>
+      <c r="F41" s="1">
+        <f>(180994-169427)/1000000</f>
+        <v>1.1566999999999999E-2</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E51187-EC3D-F44B-A183-49DDA84332BC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>3.0979006301904359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.0464596521171559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>4.8968553924936717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>6.7099915443622171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>8.3281629321796053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>9.8926634423539639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+      <selection pane="topRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3966,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5486,9 +10228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X14" sqref="X14"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6381,11 +11123,903 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0608731F-35D7-F841-A85A-A8C2B847CA02}">
+  <dimension ref="A1:AO21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="9" customWidth="1"/>
+    <col min="3" max="11" width="8.6640625" style="9"/>
+    <col min="12" max="12" width="17.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="26" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>2</v>
+      </c>
+      <c r="T4" s="9">
+        <v>4</v>
+      </c>
+      <c r="W4" s="9">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.1315839999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <f>$A5/(D5+$A$11*E5)</f>
+        <v>14.139471749335446</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="H5" s="9">
+        <f>1.536-G5</f>
+        <v>0.32299999999999995</v>
+      </c>
+      <c r="I5" s="9">
+        <f>$A5/(G5+$A$11*H5)</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1.385</v>
+      </c>
+      <c r="K5" s="9">
+        <f>1.688-J5</f>
+        <v>0.30299999999999994</v>
+      </c>
+      <c r="L5" s="9">
+        <f>$A5/(J5+$A$11*K5)</f>
+        <v>9.4786729857819907</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2.7789999999999999</v>
+      </c>
+      <c r="N5" s="9">
+        <f>3.047-M5</f>
+        <v>0.26800000000000024</v>
+      </c>
+      <c r="O5" s="9">
+        <f>$A5/(M5+$A$11*N5)</f>
+        <v>5.2510666229077776</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="R5" s="13">
+        <f>0.927-Q5</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <f>$A5/(Q5+$A$11*R5)</f>
+        <v>17.259978425026969</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="U5" s="9">
+        <f>1.014-T5</f>
+        <v>0.32300000000000006</v>
+      </c>
+      <c r="V5" s="9">
+        <f>$A5/(T5+1.5*U5)</f>
+        <v>13.611229264142919</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1.383</v>
+      </c>
+      <c r="X5" s="9">
+        <f>1.704-W5</f>
+        <v>0.32099999999999995</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>$A5/(W5+1.5*X5)</f>
+        <v>8.5813891123625634</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="AA5" s="9">
+        <f>3.069-Z5</f>
+        <v>0.30399999999999983</v>
+      </c>
+      <c r="AB5" s="9">
+        <f>$A5/(Z5+1.5*AA5)</f>
+        <v>4.9674014281279106</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AE5" s="13">
+        <f>0.867-AD5</f>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>$A5/(AD5+1.75*AE5)</f>
+        <v>14.453477868112016</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="AH5" s="9">
+        <f>1.017-AG5</f>
+        <v>0.32599999999999996</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>$A5/(AG5+1.75*AH5)</f>
+        <v>12.683313515655966</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="AK5" s="9">
+        <f>1.705-AJ5</f>
+        <v>0.32300000000000018</v>
+      </c>
+      <c r="AL5" s="9">
+        <f>$A5/(AJ5+1.75*AK5)</f>
+        <v>8.2167158813711634</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="AN5" s="9">
+        <f>3.032-AM5</f>
+        <v>0.26800000000000024</v>
+      </c>
+      <c r="AO5" s="9">
+        <f>$A5/(AM5+1.5*AN5)</f>
+        <v>5.0536955148452298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.117</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6" si="0">$A6/(D6+$A$11*E6)</f>
+        <v>10.266281681103626</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I7" si="1">$A6/(G6+$A$11*H6)</f>
+        <v>10.259698621352998</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="K6" s="9">
+        <f>2.754-J6</f>
+        <v>0.32100000000000017</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" ref="L6:L8" si="2">$A6/(J6+$A$11*K6)</f>
+        <v>11.619462599854756</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2.7709999999999999</v>
+      </c>
+      <c r="N6" s="9">
+        <f>3.078-M6</f>
+        <v>0.30699999999999994</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O8" si="3">$A6/(M6+$A$11*N6)</f>
+        <v>10.396361273554257</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" ref="S6" si="4">$A6/(Q6+$A$11*R6)</f>
+        <v>10.481493612839829</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="U6" s="13">
+        <f>1.454-T6</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" ref="V6:V7" si="5">$A6/(T6+U6)</f>
+        <v>22.008253094910593</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="X6" s="9">
+        <f>1.704-W6</f>
+        <v>0.32200000000000006</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>$A6/(W6+1.5*X6)</f>
+        <v>17.158176943699733</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="AA6" s="9">
+        <f>3.095-Z6</f>
+        <v>0.3230000000000004</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" ref="AB6:AB7" si="6">$A6/(Z6+1.5*AA6)</f>
+        <v>9.8265008444649151</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>2.476</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" ref="AF6" si="7">$A6/(AD6+$A$11*AE6)</f>
+        <v>12.924071082390954</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="AH6" s="13">
+        <f>1.1625-AG6</f>
+        <v>0.26550000000000007</v>
+      </c>
+      <c r="AI6" s="8">
+        <f>$A6/(AG6+1.5*AH6)</f>
+        <v>24.705655278903681</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>1.383</v>
+      </c>
+      <c r="AK6" s="9">
+        <f>1.658-AJ6</f>
+        <v>0.27499999999999991</v>
+      </c>
+      <c r="AL6" s="9">
+        <f>$A6/(AJ6+1.5*AK6)</f>
+        <v>17.822333611807299</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="AN6" s="9">
+        <f>3.1-AM6</f>
+        <v>0.32699999999999996</v>
+      </c>
+      <c r="AO6" s="9">
+        <f>$A6/(AM6+1.75*AN6)</f>
+        <v>9.5658022569314696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="1"/>
+        <v>13.513513513513514</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="2"/>
+        <v>12.057272042200452</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="N7" s="9">
+        <f>5.186-M7</f>
+        <v>0.32500000000000018</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="3"/>
+        <v>12.340917855765523</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="9">
+        <v>4.194</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="5"/>
+        <v>15.259895088221269</v>
+      </c>
+      <c r="W7" s="12">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="X7" s="13">
+        <f>2.497-W7</f>
+        <v>1.399999999999979E-2</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" ref="Y7:Y8" si="8">$A7/(W7+$A$11*X7)</f>
+        <v>25.63075690828995</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>2.77</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>3.072-Z7</f>
+        <v>0.30200000000000005</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="6"/>
+        <v>19.857275829972078</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>3.367</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" ref="AI7" si="9">$A7/(AG7+$A$11*AH7)</f>
+        <v>19.008019008019009</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>1.589</v>
+      </c>
+      <c r="AK7" s="13">
+        <f>1.853-AJ7</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AL7" s="8">
+        <f>$A7/(AJ7+1.5*AK7)</f>
+        <v>32.241813602015114</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="AN7" s="9">
+        <f>3.087-AM7</f>
+        <v>0.31900000000000039</v>
+      </c>
+      <c r="AO7" s="9">
+        <f>$A7/(AM7+1.75*AN7)</f>
+        <v>19.240886884629838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>128</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="15">
+        <v>7.93</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>16.141235813366961</v>
+      </c>
+      <c r="M8" s="12">
+        <v>9.7089999999999996</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="3"/>
+        <v>13.183644041610878</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="9">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="8"/>
+        <v>21.280133000831256</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="AA8" s="13">
+        <f>4.583-Z8</f>
+        <v>1.5000000000000568E-2</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" ref="AB8" si="10">$A8/(Z8+$A$11*AA8)</f>
+        <v>27.929303949378134</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>5.1870000000000003</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="9">
+        <f t="shared" ref="AL8" si="11">$A8/(AJ8+$A$11*AK8)</f>
+        <v>24.677077308656255</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>2.3023980000000002</v>
+      </c>
+      <c r="AN8" s="13">
+        <f>2.627743-AM8</f>
+        <v>0.325345</v>
+      </c>
+      <c r="AO8" s="5">
+        <f>$A8/(AM8+1.5*AN8)</f>
+        <v>45.871304828976186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="24">
+        <f>(194688-167384)/1000000</f>
+        <v>2.7303999999999998E-2</v>
+      </c>
+      <c r="K14" s="24">
+        <f>(606534-596055)/1000000</f>
+        <v>1.0479E-2</v>
+      </c>
+      <c r="L14" s="15">
+        <v>7.93</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6</v>
+      </c>
+      <c r="N14" s="25">
+        <f>L15/L14</f>
+        <v>2.8587389659520807E-2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="25">
+        <v>2.8587389659520807E-2</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>2.8562177145017006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="27">
+        <f>(J14+K14)*M14</f>
+        <v>0.22669799999999998</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0.11148</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0.12603806734992679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0.25947999999999999</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0.27116582207207213</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="24">
+        <f>(85026-69997)/1000000</f>
+        <v>1.5029000000000001E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(227418-195341)/1000000</f>
+        <v>3.2077000000000001E-2</v>
+      </c>
+      <c r="L17" s="24">
+        <v>5.9157089999999997</v>
+      </c>
+      <c r="M17" s="1">
+        <v>14</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0.11148012858644671</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="27">
+        <f>(J17+K17)*M17</f>
+        <v>0.65948400000000007</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" s="24">
+        <f>(30515-25705)/1000000</f>
+        <v>4.81E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <f>(103221-59328)/1000000</f>
+        <v>4.3893000000000001E-2</v>
+      </c>
+      <c r="L20" s="24">
+        <v>2.6277430000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>14</v>
+      </c>
+      <c r="N20" s="25">
+        <f>L21/L20</f>
+        <v>0.25947819097986369</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="27">
+        <f>(J20+K20)*M20</f>
+        <v>0.68184200000000006</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H29" activeCellId="2" sqref="H14 H23 H29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7471,4 +13105,1704 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BFD8A42-5393-2D4D-814F-935D916791E9}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <f>2*(G3-1)/G3</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1">
+        <f>2*(K3-1)/K3</f>
+        <v>1.5</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1">
+        <f>2*(O3-1)/O3</f>
+        <v>1.75</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f>$B4/(C4+$A$11*D4)</f>
+        <v>2.4330900243309004</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E7" si="0">$B5/(C5+$A$11*D5)</f>
+        <v>3.8022813688212924</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I5" s="1">
+        <f>$B5/(G5+$G$1*H5)</f>
+        <v>1.589825119236884</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4543429844097995</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I8" si="1">$B6/(G6+$G$1*H6)</f>
+        <v>2.9133284777858703</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <f>$B6/(K6+$K$1*L6)</f>
+        <v>2.3788284269997026</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.538</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.2015604681404417</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5845272206303722</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M8" si="2">$B7/(K7+$K$1*L7)</f>
+        <v>4.4531032563317563</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>$B7/(O7+$O$1*P7)</f>
+        <v>4.2255380958668951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1.538</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="1"/>
+        <v>6.7085953878406714</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3783721466451473</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>$B8/(O8+$O$1*P8)</f>
+        <v>7.9671355657911107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AE8E36-7252-4A4C-A579-9CB824960993}">
+  <dimension ref="A1:AP29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1">
+        <f>2*(D3-1)/D3</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1">
+        <f>2*(Q3-1)/Q3</f>
+        <v>1.5</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1">
+        <f>2*(AD3-1)/AD3</f>
+        <v>1.75</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>4</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+    </row>
+    <row r="4" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1">
+        <v>8</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+    </row>
+    <row r="5" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.6849999999999996</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>$A5/(J5+$A$11*K5)</f>
+        <v>2.8144239226033423</v>
+      </c>
+      <c r="M5" s="1">
+        <v>12.140752000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <f>12.347022-M5</f>
+        <v>0.20626999999999995</v>
+      </c>
+      <c r="O5" s="1">
+        <f>$A5/(M5+$A$11*N5)</f>
+        <v>1.2958590338625782</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="33">
+        <v>4.8652680000000004</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <f>$A5/(T5+1.5*U5)</f>
+        <v>3.2886163722121782</v>
+      </c>
+      <c r="W5" s="31">
+        <v>4.9240839999999997</v>
+      </c>
+      <c r="X5" s="31">
+        <f>5.003-W5</f>
+        <v>7.891600000000043E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>$A5/(W5+1.5*X5)</f>
+        <v>3.1730556803844476</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>11.870495999999999</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>12.1081-Z5</f>
+        <v>0.23760400000000104</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>$A5/(Z5+1.5*AA5)</f>
+        <v>1.3085898619290479</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>3.493738</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>3.528291-AG5</f>
+        <v>3.4552999999999834E-2</v>
+      </c>
+      <c r="AI5" s="6">
+        <f>$A5/(AG5+$AE$1*AH5)</f>
+        <v>4.5017089964473787</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>4.2379879999999996</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>4.427984-AJ5</f>
+        <v>0.18999600000000072</v>
+      </c>
+      <c r="AL5" s="1">
+        <f>$A5/(AJ5+$AE$1*AK5)</f>
+        <v>3.5007256347854847</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>12.502272</v>
+      </c>
+      <c r="AN5" s="1">
+        <f>12.740601-AM5</f>
+        <v>0.23832900000000024</v>
+      </c>
+      <c r="AO5" s="1">
+        <f>$A5/(AM5+$AE$1*AN5)</f>
+        <v>1.2384526146066468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10.503996000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" ref="O6" si="0">$A6/(M6+$A$11*N6)</f>
+        <v>3.0464596521171559</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="3">
+        <v>6.9096399999999996</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <f t="shared" ref="Y6" si="1">$A6/(W6+1.5*X6)</f>
+        <v>4.6312108879767981</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>7.2686140000000004</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>7.470498-Z6</f>
+        <v>0.20188399999999973</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" ref="AB6:AB7" si="2">$A6/(Z6+1.5*AA6)</f>
+        <v>4.2264087148547702</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>4.2053399999999996</v>
+      </c>
+      <c r="AK6" s="4">
+        <f>4.271666-AJ6</f>
+        <v>6.6326000000000107E-2</v>
+      </c>
+      <c r="AL6" s="6">
+        <f t="shared" ref="AL6:AL8" si="3">$A6/(AJ6+$AE$1*AK6)</f>
+        <v>7.4049896440062799</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>7.6993140000000002</v>
+      </c>
+      <c r="AN6" s="1">
+        <f>7.90217-AM6</f>
+        <v>0.2028559999999997</v>
+      </c>
+      <c r="AO6" s="1">
+        <f t="shared" ref="AO6:AO8" si="4">$A6/(AM6+$AE$1*AN6)</f>
+        <v>3.9730271188898572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>9.4114419999999992</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>9.495824-Z7</f>
+        <v>8.4382000000001511E-2</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="2"/>
+        <v>6.7099915443622171</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>6.3396939999999997</v>
+      </c>
+      <c r="AN7" s="4">
+        <f>6.413835-AM7</f>
+        <v>7.4141000000000012E-2</v>
+      </c>
+      <c r="AO7" s="5">
+        <f t="shared" si="4"/>
+        <v>9.8926634423539639</v>
+      </c>
+      <c r="AP7" s="29"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP8" s="29"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="24">
+        <f>(144528-133611)/1000000</f>
+        <v>1.0917E-2</v>
+      </c>
+      <c r="D14" s="24">
+        <f>(445682-396707)/1000000</f>
+        <v>4.8974999999999998E-2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>10.503996000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14</v>
+      </c>
+      <c r="G14" s="25">
+        <f>E15/E14</f>
+        <v>7.9825620649512805E-2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="35">
+        <v>7.9829999999999998E-2</v>
+      </c>
+      <c r="J14" s="25">
+        <v>6.7158032430372758E-2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="35">
+        <v>7.9829999999999998E-2</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>6.7158032430372758E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="27">
+        <f>(C14+D14)*F14</f>
+        <v>0.83848800000000001</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.11148</v>
+      </c>
+      <c r="J15" s="25">
+        <v>9.5457768753961475E-2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0.11148</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>9.5457768753961475E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.10347943157253034</v>
+      </c>
+      <c r="J16" s="25">
+        <v>9.3474519985508986E-2</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0.10347943157253034</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>9.3474519985508986E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24">
+        <f>(132698-108504)/1000000</f>
+        <v>2.4194E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f>(394210-381953)/1000000</f>
+        <v>1.2257000000000001E-2</v>
+      </c>
+      <c r="E17" s="24">
+        <v>9.4958240000000007</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.11148012858644671</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="27">
+        <f>(C17+D17)*F17</f>
+        <v>0.51031399999999993</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D20" s="24">
+        <f>(194121-175338)/1000000</f>
+        <v>1.8783000000000001E-2</v>
+      </c>
+      <c r="E20" s="24">
+        <v>6.4138349999999997</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14</v>
+      </c>
+      <c r="G20" s="25">
+        <f>E21/E20</f>
+        <v>0.10347943157253034</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D21" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f>2*SUM(C20:D29)</f>
+        <v>0.66370000000000007</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D22" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D23" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D24" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D25" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="24">
+        <f>(71576-57561)/1000000</f>
+        <v>1.4015E-2</v>
+      </c>
+      <c r="D26" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="24">
+        <f>(71576-59624)/1000000</f>
+        <v>1.1952000000000001E-2</v>
+      </c>
+      <c r="D27" s="24">
+        <f>(199011-175338)/1000000</f>
+        <v>2.3673E-2</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="24">
+        <f>(69474-59624)/1000000</f>
+        <v>9.8499999999999994E-3</v>
+      </c>
+      <c r="D28" s="24">
+        <f>(199011-180546)/1000000</f>
+        <v>1.8464999999999999E-2</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="24">
+        <f>(60174-59624)/1000000</f>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D29" s="24">
+        <f>(188980-180546)/1000000</f>
+        <v>8.4340000000000005E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>